--- a/data/trans_camb/P12A1_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 28,75</t>
+          <t>-1,47; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 30,47</t>
+          <t>-3,24; 4,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 37,12</t>
+          <t>-1,76; 6,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 18,99</t>
+          <t>-4,35; 4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 31,18</t>
+          <t>-5,36; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 17,17</t>
+          <t>-1,72; 9,47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 2,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 6,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>107,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>66,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,68%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 163,23</t>
+          <t>-48,69; 545,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,15; 159,5</t>
+          <t>-73,62; 326,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 84,08</t>
+          <t>-46,63; 548,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 42,95</t>
+          <t>-64,93; 172,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 95,67</t>
+          <t>-75,23; 132,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 49,66</t>
+          <t>-35,49; 370,54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 202,19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-57,84; 121,56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 274,75</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 18,27</t>
+          <t>-6,21; 5,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 23,02</t>
+          <t>-5,46; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 25,16</t>
+          <t>-2,13; 11,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 16,25</t>
+          <t>-10,47; 0,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 13,83</t>
+          <t>-11,34; -0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 12,84</t>
+          <t>-8,97; 4,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 1,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 1,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 5,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>-55,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-64,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-25,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-30,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-29,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 64,19</t>
+          <t>-61,96; 147,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 77,02</t>
+          <t>-56,08; 187,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 74,37</t>
+          <t>-26,0; 297,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 47,41</t>
+          <t>-87,48; 18,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 37,31</t>
+          <t>-89,87; 13,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 38,02</t>
+          <t>-75,24; 100,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-64,91; 29,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-64,93; 38,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-40,77; 104,32</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-39,92</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-37,6</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-24,22</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,13</t>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-84,98; 12,47</t>
+          <t>-13,18; 19,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 16,25</t>
+          <t>-13,68; 19,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-78,79; 38,51</t>
+          <t>-12,6; 24,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-80,36; 50,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,57; 9,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,41; 12,25</t>
+          <t>0,0; 18,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 9,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 9,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 17,61</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-50,84%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,88%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,47%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>118,82%</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,32; 11,06</t>
+          <t>-86,15; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,74; 19,75</t>
+          <t>-87,06; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,42</t>
+          <t>-85,3; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,74; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,66; 15,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-88,08; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-58,52; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 12,49</t>
+          <t>-2,19; 5,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 14,97</t>
+          <t>-2,42; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 23,54</t>
+          <t>-0,42; 7,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 9,83</t>
+          <t>-5,34; 1,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 14,16</t>
+          <t>-5,91; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 7,08</t>
+          <t>-2,86; 5,11</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 2,14</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,93</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>-46,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-14,99%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39,77%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 40,67</t>
+          <t>-30,25; 155,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 46,27</t>
+          <t>-36,14; 136,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 54,28</t>
+          <t>-9,98; 198,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 22,36</t>
+          <t>-70,06; 30,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 36,01</t>
+          <t>-75,38; 9,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 18,41</t>
+          <t>-37,94; 119,7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-38,79; 52,5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-47,09; 34,98</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 122,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
